--- a/analysis/cfg-case-study/result-summary/abu-analysis/common_case_economics_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/common_case_economics_1500_3000_ft.xlsx
@@ -192,6 +192,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Note</t>
     </r>
     <r>
@@ -1042,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1137,9 +1145,6 @@
     <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,9 +1158,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1170,6 +1172,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1215,37 +1220,22 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1267,27 +1257,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1298,9 +1279,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,9 +1318,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1725,10 +1700,10 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="7" t="s">
@@ -1758,7 +1733,7 @@
       <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>19</v>
       </c>
       <c r="M3" s="17"/>
@@ -1788,13 +1763,13 @@
       <c r="H4" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <v>0.8</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <v>0.25</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="46"/>
     </row>
     <row r="5" customHeight="1" spans="10:17">
       <c r="J5" s="17"/>
@@ -1808,15 +1783,15 @@
       <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="48"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" customHeight="1" spans="3:11">
       <c r="C7" s="17"/>
-      <c r="K7" s="49"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" customHeight="1" spans="3:11">
       <c r="C8" s="17"/>
-      <c r="K8" s="49"/>
+      <c r="K8" s="48"/>
     </row>
     <row r="9" customHeight="1"/>
     <row r="10" spans="1:17">
@@ -1838,58 +1813,58 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
-      <c r="Q10" s="59"/>
+      <c r="Q10" s="57"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:17">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="89" t="s">
+      <c r="H11" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="89" t="s">
+      <c r="L11" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="89" t="s">
+      <c r="N11" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="89" t="s">
+      <c r="O11" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="89" t="s">
+      <c r="P11" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="104" t="s">
+      <c r="Q11" s="93" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1897,7 +1872,7 @@
       <c r="A12" s="8">
         <v>1500</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="80">
         <v>30</v>
       </c>
       <c r="C12" s="24">
@@ -1912,13 +1887,13 @@
       <c r="F12" s="25">
         <v>0.282778</v>
       </c>
-      <c r="G12" s="91">
+      <c r="G12" s="81">
         <v>1.43068</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="81">
         <v>0.8</v>
       </c>
-      <c r="I12" s="91">
+      <c r="I12" s="81">
         <v>0.63068</v>
       </c>
       <c r="J12" s="25">
@@ -1927,7 +1902,7 @@
       <c r="K12" s="25">
         <v>1.963458</v>
       </c>
-      <c r="L12" s="100">
+      <c r="L12" s="90">
         <v>12</v>
       </c>
       <c r="M12" s="25">
@@ -1942,13 +1917,13 @@
       <c r="P12" s="25">
         <v>62.166692</v>
       </c>
-      <c r="Q12" s="63">
+      <c r="Q12" s="59">
         <v>62.166692</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="8"/>
-      <c r="B13" s="90">
+      <c r="B13" s="80">
         <v>45</v>
       </c>
       <c r="C13" s="24">
@@ -1963,13 +1938,13 @@
       <c r="F13" s="26">
         <v>0.382778</v>
       </c>
-      <c r="G13" s="92">
+      <c r="G13" s="82">
         <v>1.43068</v>
       </c>
-      <c r="H13" s="92">
+      <c r="H13" s="82">
         <v>0.8</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="82">
         <v>0.63068</v>
       </c>
       <c r="J13" s="25">
@@ -1978,7 +1953,7 @@
       <c r="K13" s="26">
         <v>2.063458</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="77">
         <v>11</v>
       </c>
       <c r="M13" s="26">
@@ -1993,13 +1968,13 @@
       <c r="P13" s="26">
         <v>88.838619</v>
       </c>
-      <c r="Q13" s="63">
+      <c r="Q13" s="59">
         <v>88.838619</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="8"/>
-      <c r="B14" s="90">
+      <c r="B14" s="80">
         <v>60</v>
       </c>
       <c r="C14" s="24">
@@ -2014,13 +1989,13 @@
       <c r="F14" s="26">
         <v>0.482778</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="82">
         <v>1.43068</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="82">
         <v>0.8</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="82">
         <v>0.63068</v>
       </c>
       <c r="J14" s="25">
@@ -2029,7 +2004,7 @@
       <c r="K14" s="26">
         <v>2.163458</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="77">
         <v>11</v>
       </c>
       <c r="M14" s="26">
@@ -2044,15 +2019,15 @@
       <c r="P14" s="26">
         <v>115.510547</v>
       </c>
-      <c r="Q14" s="63">
+      <c r="Q14" s="59">
         <v>115.510547</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="93">
+      <c r="A15" s="83">
         <v>3000</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="84">
         <v>30</v>
       </c>
       <c r="C15" s="29">
@@ -2082,7 +2057,7 @@
       <c r="K15" s="31">
         <v>1.987347</v>
       </c>
-      <c r="L15" s="102">
+      <c r="L15" s="91">
         <v>12</v>
       </c>
       <c r="M15" s="31">
@@ -2097,16 +2072,16 @@
       <c r="P15" s="31">
         <v>56.265255</v>
       </c>
-      <c r="Q15" s="64">
+      <c r="Q15" s="60">
         <v>56.265255</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94">
+      <c r="A16" s="83"/>
+      <c r="B16" s="84">
         <v>45</v>
       </c>
-      <c r="C16" s="95">
+      <c r="C16" s="85">
         <v>82.629799</v>
       </c>
       <c r="D16" s="30">
@@ -2133,7 +2108,7 @@
       <c r="K16" s="31">
         <v>2.087347</v>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="91">
         <v>11</v>
       </c>
       <c r="M16" s="31">
@@ -2148,16 +2123,16 @@
       <c r="P16" s="31">
         <v>82.629799</v>
       </c>
-      <c r="Q16" s="64">
+      <c r="Q16" s="60">
         <v>82.629799</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94">
+      <c r="A17" s="83"/>
+      <c r="B17" s="84">
         <v>60</v>
       </c>
-      <c r="C17" s="95">
+      <c r="C17" s="85">
         <v>108.994343</v>
       </c>
       <c r="D17" s="30">
@@ -2184,7 +2159,7 @@
       <c r="K17" s="31">
         <v>2.187347</v>
       </c>
-      <c r="L17" s="102">
+      <c r="L17" s="91">
         <v>10</v>
       </c>
       <c r="M17" s="31">
@@ -2199,7 +2174,7 @@
       <c r="P17" s="31">
         <v>108.994343</v>
       </c>
-      <c r="Q17" s="64">
+      <c r="Q17" s="60">
         <v>108.994343</v>
       </c>
     </row>
@@ -2222,13 +2197,13 @@
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
-      <c r="Q18" s="59"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="8">
         <v>1500</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="80">
         <v>30</v>
       </c>
       <c r="C19" s="24">
@@ -2243,13 +2218,13 @@
       <c r="F19" s="25">
         <v>0.282778</v>
       </c>
-      <c r="G19" s="91">
+      <c r="G19" s="81">
         <v>1.43068</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="81">
         <v>0.8</v>
       </c>
-      <c r="I19" s="91">
+      <c r="I19" s="81">
         <v>0.63068</v>
       </c>
       <c r="J19" s="25">
@@ -2258,7 +2233,7 @@
       <c r="K19" s="25">
         <v>1.963458</v>
       </c>
-      <c r="L19" s="100">
+      <c r="L19" s="90">
         <v>12</v>
       </c>
       <c r="M19" s="25">
@@ -2273,13 +2248,13 @@
       <c r="P19" s="25">
         <v>41.948037</v>
       </c>
-      <c r="Q19" s="63">
+      <c r="Q19" s="59">
         <v>41.948037</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="8"/>
-      <c r="B20" s="90">
+      <c r="B20" s="80">
         <v>45</v>
       </c>
       <c r="C20" s="24">
@@ -2294,13 +2269,13 @@
       <c r="F20" s="26">
         <v>0.382778</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G20" s="82">
         <v>1.43068</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="82">
         <v>0.8</v>
       </c>
-      <c r="I20" s="92">
+      <c r="I20" s="82">
         <v>0.63068</v>
       </c>
       <c r="J20" s="25">
@@ -2309,7 +2284,7 @@
       <c r="K20" s="26">
         <v>2.063458</v>
       </c>
-      <c r="L20" s="101">
+      <c r="L20" s="77">
         <v>11</v>
       </c>
       <c r="M20" s="26">
@@ -2324,13 +2299,13 @@
       <c r="P20" s="26">
         <v>58.736623</v>
       </c>
-      <c r="Q20" s="63">
+      <c r="Q20" s="59">
         <v>58.736623</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="8"/>
-      <c r="B21" s="90">
+      <c r="B21" s="80">
         <v>60</v>
       </c>
       <c r="C21" s="24">
@@ -2345,13 +2320,13 @@
       <c r="F21" s="26">
         <v>0.482778</v>
       </c>
-      <c r="G21" s="92">
+      <c r="G21" s="82">
         <v>1.43068</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="82">
         <v>0.8</v>
       </c>
-      <c r="I21" s="92">
+      <c r="I21" s="82">
         <v>0.63068</v>
       </c>
       <c r="J21" s="25">
@@ -2360,7 +2335,7 @@
       <c r="K21" s="26">
         <v>2.163458</v>
       </c>
-      <c r="L21" s="101">
+      <c r="L21" s="77">
         <v>11</v>
       </c>
       <c r="M21" s="26">
@@ -2375,15 +2350,15 @@
       <c r="P21" s="26">
         <v>75.525208</v>
       </c>
-      <c r="Q21" s="63">
+      <c r="Q21" s="59">
         <v>75.525208</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="93">
+      <c r="A22" s="83">
         <v>3000</v>
       </c>
-      <c r="B22" s="94">
+      <c r="B22" s="84">
         <v>30</v>
       </c>
       <c r="C22" s="29">
@@ -2413,7 +2388,7 @@
       <c r="K22" s="31">
         <v>1.987347</v>
       </c>
-      <c r="L22" s="102">
+      <c r="L22" s="91">
         <v>12</v>
       </c>
       <c r="M22" s="31">
@@ -2428,13 +2403,13 @@
       <c r="P22" s="31">
         <v>41.522147</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="60">
         <v>41.522147</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94">
+      <c r="A23" s="83"/>
+      <c r="B23" s="84">
         <v>45</v>
       </c>
       <c r="C23" s="29">
@@ -2464,7 +2439,7 @@
       <c r="K23" s="31">
         <v>2.087347</v>
       </c>
-      <c r="L23" s="102">
+      <c r="L23" s="91">
         <v>11</v>
       </c>
       <c r="M23" s="31">
@@ -2479,16 +2454,16 @@
       <c r="P23" s="31">
         <v>58.408147</v>
       </c>
-      <c r="Q23" s="64">
+      <c r="Q23" s="60">
         <v>58.408147</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94">
+      <c r="A24" s="83"/>
+      <c r="B24" s="84">
         <v>60</v>
       </c>
-      <c r="C24" s="95">
+      <c r="C24" s="85">
         <v>75.294146</v>
       </c>
       <c r="D24" s="30">
@@ -2515,7 +2490,7 @@
       <c r="K24" s="31">
         <v>2.187347</v>
       </c>
-      <c r="L24" s="102">
+      <c r="L24" s="91">
         <v>10</v>
       </c>
       <c r="M24" s="31">
@@ -2530,7 +2505,7 @@
       <c r="P24" s="31">
         <v>75.294146</v>
       </c>
-      <c r="Q24" s="64">
+      <c r="Q24" s="60">
         <v>75.294146</v>
       </c>
     </row>
@@ -2553,16 +2528,16 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
-      <c r="Q25" s="59"/>
+      <c r="Q25" s="57"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="96">
+      <c r="A26" s="86">
         <v>1500</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="80">
         <v>30</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="87">
         <v>62.644821</v>
       </c>
       <c r="D26" s="25">
@@ -2574,13 +2549,13 @@
       <c r="F26" s="25">
         <v>0.282778</v>
       </c>
-      <c r="G26" s="91">
+      <c r="G26" s="81">
         <v>1.43068</v>
       </c>
-      <c r="H26" s="91">
+      <c r="H26" s="81">
         <v>0.8</v>
       </c>
-      <c r="I26" s="91">
+      <c r="I26" s="81">
         <v>0.63068</v>
       </c>
       <c r="J26" s="25">
@@ -2589,7 +2564,7 @@
       <c r="K26" s="25">
         <v>1.963458</v>
       </c>
-      <c r="L26" s="100">
+      <c r="L26" s="90">
         <v>12</v>
       </c>
       <c r="M26" s="25">
@@ -2604,16 +2579,16 @@
       <c r="P26" s="25">
         <v>62.644821</v>
       </c>
-      <c r="Q26" s="63">
+      <c r="Q26" s="59">
         <v>62.644821</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="90"/>
-      <c r="B27" s="90">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80">
         <v>45</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="87">
         <v>89.13266</v>
       </c>
       <c r="D27" s="25">
@@ -2625,13 +2600,13 @@
       <c r="F27" s="25">
         <v>0.382778</v>
       </c>
-      <c r="G27" s="91">
+      <c r="G27" s="81">
         <v>1.43068</v>
       </c>
-      <c r="H27" s="91">
+      <c r="H27" s="81">
         <v>0.8</v>
       </c>
-      <c r="I27" s="91">
+      <c r="I27" s="81">
         <v>0.63068</v>
       </c>
       <c r="J27" s="25">
@@ -2640,7 +2615,7 @@
       <c r="K27" s="25">
         <v>2.063458</v>
       </c>
-      <c r="L27" s="100">
+      <c r="L27" s="90">
         <v>11</v>
       </c>
       <c r="M27" s="25">
@@ -2655,16 +2630,16 @@
       <c r="P27" s="25">
         <v>89.13266</v>
       </c>
-      <c r="Q27" s="63">
+      <c r="Q27" s="59">
         <v>89.13266</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80">
         <v>60</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="87">
         <v>115.620499</v>
       </c>
       <c r="D28" s="25">
@@ -2676,13 +2651,13 @@
       <c r="F28" s="26">
         <v>0.482778</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="82">
         <v>1.43068</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="82">
         <v>0.8</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I28" s="82">
         <v>0.63068</v>
       </c>
       <c r="J28" s="25">
@@ -2691,7 +2666,7 @@
       <c r="K28" s="26">
         <v>2.163458</v>
       </c>
-      <c r="L28" s="101">
+      <c r="L28" s="77">
         <v>11</v>
       </c>
       <c r="M28" s="26">
@@ -2706,18 +2681,18 @@
       <c r="P28" s="26">
         <v>115.620499</v>
       </c>
-      <c r="Q28" s="63">
+      <c r="Q28" s="59">
         <v>115.620499</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="94">
+      <c r="A29" s="84">
         <v>3000</v>
       </c>
-      <c r="B29" s="94">
+      <c r="B29" s="84">
         <v>30</v>
       </c>
-      <c r="C29" s="95">
+      <c r="C29" s="85">
         <v>57.92778</v>
       </c>
       <c r="D29" s="30">
@@ -2744,7 +2719,7 @@
       <c r="K29" s="31">
         <v>1.987347</v>
       </c>
-      <c r="L29" s="102">
+      <c r="L29" s="91">
         <v>12</v>
       </c>
       <c r="M29" s="31">
@@ -2759,16 +2734,16 @@
       <c r="P29" s="31">
         <v>57.92778</v>
       </c>
-      <c r="Q29" s="64">
+      <c r="Q29" s="60">
         <v>57.92778</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94">
+      <c r="A30" s="84"/>
+      <c r="B30" s="84">
         <v>45</v>
       </c>
-      <c r="C30" s="95">
+      <c r="C30" s="85">
         <v>84.298844</v>
       </c>
       <c r="D30" s="30">
@@ -2795,7 +2770,7 @@
       <c r="K30" s="31">
         <v>2.087347</v>
       </c>
-      <c r="L30" s="102">
+      <c r="L30" s="91">
         <v>11</v>
       </c>
       <c r="M30" s="31">
@@ -2810,58 +2785,58 @@
       <c r="P30" s="31">
         <v>84.298844</v>
       </c>
-      <c r="Q30" s="64">
+      <c r="Q30" s="60">
         <v>84.298844</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88">
         <v>60</v>
       </c>
-      <c r="C31" s="99">
+      <c r="C31" s="89">
         <v>110.669908</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <v>110.669908</v>
       </c>
-      <c r="E31" s="41">
-        <v>1</v>
-      </c>
-      <c r="F31" s="41">
+      <c r="E31" s="39">
+        <v>1</v>
+      </c>
+      <c r="F31" s="39">
         <v>0.506667</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="39">
         <v>1.43068</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="39">
         <v>0.8</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>0.63068</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="39">
         <v>0.25</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="39">
         <v>2.187347</v>
       </c>
-      <c r="L31" s="103">
+      <c r="L31" s="92">
         <v>10</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="39">
         <v>5.066667</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="39">
         <v>18.933333</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="39">
         <v>332.5</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="39">
         <v>110.669908</v>
       </c>
-      <c r="Q31" s="69">
+      <c r="Q31" s="63">
         <v>110.669908</v>
       </c>
     </row>
@@ -2887,113 +2862,113 @@
   <sheetPr/>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1759259259259" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.7777777777778" style="42" customWidth="1"/>
-    <col min="3" max="12" width="10.3333333333333" style="42" customWidth="1"/>
-    <col min="13" max="19" width="10.3333333333333" style="56" customWidth="1"/>
-    <col min="20" max="20" width="22.0648148148148" style="56" customWidth="1"/>
-    <col min="21" max="52" width="8.77777777777778" style="42" customWidth="1"/>
-    <col min="53" max="16358" width="9" style="42"/>
-    <col min="16359" max="16359" width="9" style="70"/>
-    <col min="16360" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="13.1759259259259" style="40" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" style="40" customWidth="1"/>
+    <col min="3" max="12" width="10.3333333333333" style="40" customWidth="1"/>
+    <col min="13" max="19" width="10.3333333333333" style="55" customWidth="1"/>
+    <col min="20" max="20" width="22.0648148148148" style="55" customWidth="1"/>
+    <col min="21" max="52" width="8.77777777777778" style="40" customWidth="1"/>
+    <col min="53" max="16358" width="9" style="40"/>
+    <col min="16359" max="16359" width="9" style="64"/>
+    <col min="16360" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" ht="94" customHeight="1" spans="1:20">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="74" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="E2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="G2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:15">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="82"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:15">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="71" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="11">
         <v>115</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="14">
         <v>0.95</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="14">
         <v>800</v>
       </c>
       <c r="F4" s="14">
@@ -3005,61 +2980,61 @@
       <c r="H4" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <v>0.8</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <v>0.25</v>
       </c>
-      <c r="O4" s="85"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" customHeight="1" spans="12:20">
-      <c r="L5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
+      <c r="L5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="76"/>
     </row>
     <row r="7" customHeight="1" spans="3:13">
-      <c r="C7" s="82"/>
-      <c r="M7" s="81"/>
+      <c r="C7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" customHeight="1" spans="3:13">
-      <c r="C8" s="82"/>
-      <c r="M8" s="81"/>
+      <c r="C8" s="73"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" customHeight="1"/>
     <row r="10" spans="1:20">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="66"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="61"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:20">
       <c r="A11" s="20" t="s">
@@ -3116,10 +3091,10 @@
       <c r="R11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="60" t="s">
+      <c r="S11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="61" t="s">
+      <c r="T11" s="58" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3163,7 +3138,7 @@
       <c r="M12" s="25">
         <v>1.404966</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="49">
         <v>17</v>
       </c>
       <c r="O12" s="25">
@@ -3178,10 +3153,10 @@
       <c r="R12" s="25">
         <v>310.833458</v>
       </c>
-      <c r="S12" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T12" s="63" t="s">
+      <c r="S12" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T12" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3223,7 +3198,7 @@
       <c r="M13" s="26">
         <v>1.826229</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="50">
         <v>13</v>
       </c>
       <c r="O13" s="26">
@@ -3241,7 +3216,7 @@
       <c r="S13" s="26">
         <v>109.25</v>
       </c>
-      <c r="T13" s="63" t="s">
+      <c r="T13" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3283,7 +3258,7 @@
       <c r="M14" s="26">
         <v>2.235019</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="50">
         <v>10</v>
       </c>
       <c r="O14" s="26">
@@ -3301,7 +3276,7 @@
       <c r="S14" s="26">
         <v>109.25</v>
       </c>
-      <c r="T14" s="63" t="s">
+      <c r="T14" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3345,7 +3320,7 @@
       <c r="M15" s="31">
         <v>1.355557</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="51">
         <v>17</v>
       </c>
       <c r="O15" s="31">
@@ -3363,7 +3338,7 @@
       <c r="S15" s="31">
         <v>109.25</v>
       </c>
-      <c r="T15" s="64" t="s">
+      <c r="T15" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3372,7 +3347,7 @@
       <c r="B16" s="28">
         <v>45</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>82.629799</v>
       </c>
       <c r="D16" s="30">
@@ -3405,7 +3380,7 @@
       <c r="M16" s="31">
         <v>1.776608</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="51">
         <v>13</v>
       </c>
       <c r="O16" s="31">
@@ -3423,7 +3398,7 @@
       <c r="S16" s="31">
         <v>109.25</v>
       </c>
-      <c r="T16" s="64" t="s">
+      <c r="T16" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3432,7 +3407,7 @@
       <c r="B17" s="28">
         <v>60</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>108.994343</v>
       </c>
       <c r="D17" s="30">
@@ -3465,7 +3440,7 @@
       <c r="M17" s="31">
         <v>2.184414</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="51">
         <v>10</v>
       </c>
       <c r="O17" s="31">
@@ -3483,33 +3458,33 @@
       <c r="S17" s="31">
         <v>109.25</v>
       </c>
-      <c r="T17" s="64" t="s">
+      <c r="T17" s="60" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="66"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="61"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="22">
@@ -3551,7 +3526,7 @@
       <c r="M19" s="25">
         <v>1.149448</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N19" s="52">
         <v>20</v>
       </c>
       <c r="O19" s="25">
@@ -3566,10 +3541,10 @@
       <c r="R19" s="25">
         <v>209.740185</v>
       </c>
-      <c r="S19" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T19" s="63" t="s">
+      <c r="S19" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T19" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3611,7 +3586,7 @@
       <c r="M20" s="26">
         <v>1.462478</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="50">
         <v>16</v>
       </c>
       <c r="O20" s="26">
@@ -3629,7 +3604,7 @@
       <c r="S20" s="26">
         <v>109.25</v>
       </c>
-      <c r="T20" s="63" t="s">
+      <c r="T20" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3671,7 +3646,7 @@
       <c r="M21" s="26">
         <v>1.767715</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <v>13</v>
       </c>
       <c r="O21" s="26">
@@ -3689,7 +3664,7 @@
       <c r="S21" s="26">
         <v>109.25</v>
       </c>
-      <c r="T21" s="63" t="s">
+      <c r="T21" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3733,7 +3708,7 @@
       <c r="M22" s="31">
         <v>1.167805</v>
       </c>
-      <c r="N22" s="52">
+      <c r="N22" s="51">
         <v>20</v>
       </c>
       <c r="O22" s="31">
@@ -3751,7 +3726,7 @@
       <c r="S22" s="31">
         <v>109.25</v>
       </c>
-      <c r="T22" s="64" t="s">
+      <c r="T22" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3793,7 +3768,7 @@
       <c r="M23" s="31">
         <v>1.482282</v>
       </c>
-      <c r="N23" s="52">
+      <c r="N23" s="51">
         <v>16</v>
       </c>
       <c r="O23" s="31">
@@ -3811,7 +3786,7 @@
       <c r="S23" s="31">
         <v>109.25</v>
       </c>
-      <c r="T23" s="64" t="s">
+      <c r="T23" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3820,7 +3795,7 @@
       <c r="B24" s="28">
         <v>60</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="29">
         <v>75.294146</v>
       </c>
       <c r="D24" s="30">
@@ -3853,7 +3828,7 @@
       <c r="M24" s="31">
         <v>1.788823</v>
       </c>
-      <c r="N24" s="52">
+      <c r="N24" s="51">
         <v>13</v>
       </c>
       <c r="O24" s="31">
@@ -3871,42 +3846,42 @@
       <c r="S24" s="31">
         <v>109.25</v>
       </c>
-      <c r="T24" s="64" t="s">
+      <c r="T24" s="60" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="66"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="61"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="35">
+      <c r="A26" s="34">
         <v>1500</v>
       </c>
       <c r="B26" s="23">
         <v>30</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="24">
         <v>62.644821</v>
       </c>
       <c r="D26" s="25">
@@ -3939,7 +3914,7 @@
       <c r="M26" s="25">
         <v>1.410864</v>
       </c>
-      <c r="N26" s="50">
+      <c r="N26" s="49">
         <v>17</v>
       </c>
       <c r="O26" s="25">
@@ -3954,10 +3929,10 @@
       <c r="R26" s="25">
         <v>313.224106</v>
       </c>
-      <c r="S26" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T26" s="63" t="s">
+      <c r="S26" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T26" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3966,7 +3941,7 @@
       <c r="B27" s="23">
         <v>45</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="24">
         <v>89.13266</v>
       </c>
       <c r="D27" s="25">
@@ -3999,7 +3974,7 @@
       <c r="M27" s="25">
         <v>1.829693</v>
       </c>
-      <c r="N27" s="50">
+      <c r="N27" s="49">
         <v>13</v>
       </c>
       <c r="O27" s="25">
@@ -4014,10 +3989,10 @@
       <c r="R27" s="25">
         <v>445.6633</v>
       </c>
-      <c r="S27" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T27" s="63" t="s">
+      <c r="S27" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T27" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4026,7 +4001,7 @@
       <c r="B28" s="23">
         <v>60</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="24">
         <v>115.620499</v>
       </c>
       <c r="D28" s="25">
@@ -4059,7 +4034,7 @@
       <c r="M28" s="26">
         <v>2.236272</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="50">
         <v>10</v>
       </c>
       <c r="O28" s="26">
@@ -4077,7 +4052,7 @@
       <c r="S28" s="26">
         <v>109.25</v>
       </c>
-      <c r="T28" s="63" t="s">
+      <c r="T28" s="59" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4088,7 +4063,7 @@
       <c r="B29" s="28">
         <v>30</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>57.92778</v>
       </c>
       <c r="D29" s="30">
@@ -4121,7 +4096,7 @@
       <c r="M29" s="31">
         <v>1.376302</v>
       </c>
-      <c r="N29" s="52">
+      <c r="N29" s="51">
         <v>17</v>
       </c>
       <c r="O29" s="31">
@@ -4139,7 +4114,7 @@
       <c r="S29" s="31">
         <v>109.25</v>
       </c>
-      <c r="T29" s="64" t="s">
+      <c r="T29" s="60" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4148,7 +4123,7 @@
       <c r="B30" s="28">
         <v>45</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>84.298844</v>
       </c>
       <c r="D30" s="30">
@@ -4181,7 +4156,7 @@
       <c r="M30" s="31">
         <v>1.796437</v>
       </c>
-      <c r="N30" s="52">
+      <c r="N30" s="51">
         <v>13</v>
       </c>
       <c r="O30" s="31">
@@ -4199,67 +4174,67 @@
       <c r="S30" s="31">
         <v>109.25</v>
       </c>
-      <c r="T30" s="64" t="s">
+      <c r="T30" s="60" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37">
         <v>60</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="38">
         <v>110.669908</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <v>110.669908</v>
       </c>
-      <c r="E31" s="41">
-        <v>1</v>
-      </c>
-      <c r="F31" s="41">
+      <c r="E31" s="39">
+        <v>1</v>
+      </c>
+      <c r="F31" s="39">
         <v>0</v>
       </c>
-      <c r="G31" s="41">
-        <v>1</v>
-      </c>
-      <c r="H31" s="41">
+      <c r="G31" s="39">
+        <v>1</v>
+      </c>
+      <c r="H31" s="39">
         <v>0.506667</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>1.446956</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="39">
         <v>0.810397</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="39">
         <v>0.636559</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="39">
         <v>0.25</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="39">
         <v>2.203623</v>
       </c>
-      <c r="N31" s="55">
+      <c r="N31" s="54">
         <v>10</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="39">
         <v>5.066667</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="39">
         <v>18.933333</v>
       </c>
-      <c r="Q31" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="R31" s="41">
+      <c r="Q31" s="39">
+        <v>109.25</v>
+      </c>
+      <c r="R31" s="39">
         <v>553.349538</v>
       </c>
-      <c r="S31" s="68">
-        <v>109.25</v>
-      </c>
-      <c r="T31" s="69" t="s">
+      <c r="S31" s="39">
+        <v>109.25</v>
+      </c>
+      <c r="T31" s="63" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4283,10 +4258,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4338,11 +4313,11 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:15">
       <c r="A3" s="7" t="s">
@@ -4372,7 +4347,7 @@
       <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="43" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="17"/>
@@ -4402,13 +4377,13 @@
       <c r="H4" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <v>0.8</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <v>0.25</v>
       </c>
-      <c r="O4" s="47"/>
+      <c r="O4" s="46"/>
     </row>
     <row r="5" customHeight="1" spans="12:20">
       <c r="L5" s="17"/>
@@ -4423,18 +4398,18 @@
       <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" customHeight="1" spans="2:13">
       <c r="B7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="17"/>
-      <c r="M7" s="49"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" customHeight="1" spans="3:13">
       <c r="C8" s="17"/>
-      <c r="M8" s="49"/>
+      <c r="M8" s="48"/>
     </row>
     <row r="9" customHeight="1"/>
     <row r="10" spans="1:20">
@@ -4458,8 +4433,8 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="59"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="57"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="1:23">
       <c r="A11" s="20" t="s">
@@ -4516,15 +4491,15 @@
       <c r="R11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="60" t="s">
+      <c r="S11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="61" t="s">
+      <c r="T11" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="22">
@@ -4566,7 +4541,7 @@
       <c r="M12" s="25">
         <v>1.289</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="49">
         <v>18</v>
       </c>
       <c r="O12" s="25">
@@ -4581,15 +4556,15 @@
       <c r="R12" s="25">
         <v>310.833458</v>
       </c>
-      <c r="S12" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T12" s="63" t="s">
+      <c r="S12" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T12" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="22"/>
@@ -4629,7 +4604,7 @@
       <c r="M13" s="26">
         <v>1.710263</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="50">
         <v>14</v>
       </c>
       <c r="O13" s="26">
@@ -4647,12 +4622,12 @@
       <c r="S13" s="26">
         <v>109.25</v>
       </c>
-      <c r="T13" s="63" t="s">
+      <c r="T13" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="22"/>
@@ -4692,7 +4667,7 @@
       <c r="M14" s="26">
         <v>2.119054</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="50">
         <v>11</v>
       </c>
       <c r="O14" s="26">
@@ -4710,12 +4685,12 @@
       <c r="S14" s="26">
         <v>109.25</v>
       </c>
-      <c r="T14" s="63" t="s">
+      <c r="T14" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="27">
@@ -4757,7 +4732,7 @@
       <c r="M15" s="31">
         <v>1.249193</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="51">
         <v>19</v>
       </c>
       <c r="O15" s="31">
@@ -4775,19 +4750,19 @@
       <c r="S15" s="31">
         <v>109.25</v>
       </c>
-      <c r="T15" s="64" t="s">
+      <c r="T15" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="27"/>
       <c r="B16" s="28">
         <v>45</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="29">
         <v>82.629799</v>
       </c>
       <c r="D16" s="30">
@@ -4820,7 +4795,7 @@
       <c r="M16" s="31">
         <v>1.670243</v>
       </c>
-      <c r="N16" s="52">
+      <c r="N16" s="51">
         <v>14</v>
       </c>
       <c r="O16" s="31">
@@ -4838,19 +4813,19 @@
       <c r="S16" s="31">
         <v>109.25</v>
       </c>
-      <c r="T16" s="64" t="s">
+      <c r="T16" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
       <c r="B17" s="28">
         <v>60</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="29">
         <v>108.994343</v>
       </c>
       <c r="D17" s="30">
@@ -4883,7 +4858,7 @@
       <c r="M17" s="31">
         <v>2.078049</v>
       </c>
-      <c r="N17" s="52">
+      <c r="N17" s="51">
         <v>11</v>
       </c>
       <c r="O17" s="31">
@@ -4901,39 +4876,39 @@
       <c r="S17" s="31">
         <v>109.25</v>
       </c>
-      <c r="T17" s="64" t="s">
+      <c r="T17" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="22">
@@ -4975,7 +4950,7 @@
       <c r="M19" s="25">
         <v>1.069443</v>
       </c>
-      <c r="N19" s="53">
+      <c r="N19" s="52">
         <v>22</v>
       </c>
       <c r="O19" s="25">
@@ -4990,15 +4965,15 @@
       <c r="R19" s="25">
         <v>209.740185</v>
       </c>
-      <c r="S19" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T19" s="63" t="s">
+      <c r="S19" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T19" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="22"/>
@@ -5038,7 +5013,7 @@
       <c r="M20" s="26">
         <v>1.382473</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="50">
         <v>17</v>
       </c>
       <c r="O20" s="26">
@@ -5056,12 +5031,12 @@
       <c r="S20" s="26">
         <v>109.25</v>
       </c>
-      <c r="T20" s="63" t="s">
+      <c r="T20" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="22"/>
@@ -5101,7 +5076,7 @@
       <c r="M21" s="26">
         <v>1.68771</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="50">
         <v>14</v>
       </c>
       <c r="O21" s="26">
@@ -5119,12 +5094,12 @@
       <c r="S21" s="26">
         <v>109.25</v>
       </c>
-      <c r="T21" s="63" t="s">
+      <c r="T21" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="27">
@@ -5166,7 +5141,7 @@
       <c r="M22" s="31">
         <v>1.085122</v>
       </c>
-      <c r="N22" s="52">
+      <c r="N22" s="51">
         <v>22</v>
       </c>
       <c r="O22" s="31">
@@ -5184,12 +5159,12 @@
       <c r="S22" s="31">
         <v>109.25</v>
       </c>
-      <c r="T22" s="64" t="s">
+      <c r="T22" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="27"/>
@@ -5229,7 +5204,7 @@
       <c r="M23" s="31">
         <v>1.399598</v>
       </c>
-      <c r="N23" s="52">
+      <c r="N23" s="51">
         <v>17</v>
       </c>
       <c r="O23" s="31">
@@ -5247,19 +5222,19 @@
       <c r="S23" s="31">
         <v>109.25</v>
       </c>
-      <c r="T23" s="64" t="s">
+      <c r="T23" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="27"/>
       <c r="B24" s="28">
         <v>60</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="29">
         <v>75.294146</v>
       </c>
       <c r="D24" s="30">
@@ -5292,7 +5267,7 @@
       <c r="M24" s="31">
         <v>1.706139</v>
       </c>
-      <c r="N24" s="52">
+      <c r="N24" s="51">
         <v>14</v>
       </c>
       <c r="O24" s="31">
@@ -5310,87 +5285,87 @@
       <c r="S24" s="31">
         <v>109.25</v>
       </c>
-      <c r="T24" s="64" t="s">
+      <c r="T24" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="35">
+      <c r="A26" s="34">
         <v>1500</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="34">
         <v>30</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>62.644821</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>62.644821</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>0.797159</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>0.202841</v>
       </c>
-      <c r="G26" s="37">
-        <v>1</v>
-      </c>
-      <c r="H26" s="37">
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="36">
         <v>0.282778</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>0.761775</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="36">
         <v>0.342416</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="36">
         <v>0.41936</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="36">
         <v>0.25</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="36">
         <v>1.294553</v>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="53">
         <v>18</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="36">
         <v>5.09</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="36">
         <v>18.91</v>
       </c>
       <c r="Q26" s="25">
@@ -5399,22 +5374,22 @@
       <c r="R26" s="25">
         <v>313.224106</v>
       </c>
-      <c r="S26" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T26" s="67" t="s">
+      <c r="S26" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T26" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="23"/>
       <c r="B27" s="23">
         <v>45</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="24">
         <v>89.13266</v>
       </c>
       <c r="D27" s="25">
@@ -5447,7 +5422,7 @@
       <c r="M27" s="25">
         <v>1.713382</v>
       </c>
-      <c r="N27" s="50">
+      <c r="N27" s="49">
         <v>14</v>
       </c>
       <c r="O27" s="25">
@@ -5462,22 +5437,22 @@
       <c r="R27" s="25">
         <v>445.6633</v>
       </c>
-      <c r="S27" s="62">
-        <v>109.25</v>
-      </c>
-      <c r="T27" s="63" t="s">
+      <c r="S27" s="25">
+        <v>109.25</v>
+      </c>
+      <c r="T27" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="23"/>
       <c r="B28" s="23">
         <v>60</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="24">
         <v>115.620499</v>
       </c>
       <c r="D28" s="25">
@@ -5510,7 +5485,7 @@
       <c r="M28" s="26">
         <v>2.119961</v>
       </c>
-      <c r="N28" s="51">
+      <c r="N28" s="50">
         <v>11</v>
       </c>
       <c r="O28" s="26">
@@ -5528,12 +5503,12 @@
       <c r="S28" s="26">
         <v>109.25</v>
       </c>
-      <c r="T28" s="63" t="s">
+      <c r="T28" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="28">
@@ -5542,7 +5517,7 @@
       <c r="B29" s="28">
         <v>30</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <v>57.92778</v>
       </c>
       <c r="D29" s="30">
@@ -5575,7 +5550,7 @@
       <c r="M29" s="31">
         <v>1.267699</v>
       </c>
-      <c r="N29" s="52">
+      <c r="N29" s="51">
         <v>18</v>
       </c>
       <c r="O29" s="31">
@@ -5593,19 +5568,19 @@
       <c r="S29" s="31">
         <v>109.25</v>
       </c>
-      <c r="T29" s="64" t="s">
+      <c r="T29" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="28"/>
       <c r="B30" s="28">
         <v>45</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="29">
         <v>84.298844</v>
       </c>
       <c r="D30" s="30">
@@ -5638,7 +5613,7 @@
       <c r="M30" s="31">
         <v>1.687834</v>
       </c>
-      <c r="N30" s="52">
+      <c r="N30" s="51">
         <v>14</v>
       </c>
       <c r="O30" s="31">
@@ -5656,150 +5631,234 @@
       <c r="S30" s="31">
         <v>109.25</v>
       </c>
-      <c r="T30" s="64" t="s">
+      <c r="T30" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37">
         <v>60</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="38">
         <v>110.669908</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <v>110.669908</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="39">
         <v>0.89279</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="39">
         <v>0.10721</v>
       </c>
-      <c r="G31" s="41">
-        <v>1</v>
-      </c>
-      <c r="H31" s="41">
+      <c r="G31" s="39">
+        <v>1</v>
+      </c>
+      <c r="H31" s="39">
         <v>0.506667</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>1.338353</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="39">
         <v>0.701794</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="39">
         <v>0.636559</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="39">
         <v>0.25</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="39">
         <v>2.09502</v>
       </c>
-      <c r="N31" s="55">
+      <c r="N31" s="54">
         <v>11</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="39">
         <v>5.573333</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="39">
         <v>18.426667</v>
       </c>
-      <c r="Q31" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="R31" s="41">
+      <c r="Q31" s="39">
+        <v>109.25</v>
+      </c>
+      <c r="R31" s="39">
         <v>553.349538</v>
       </c>
-      <c r="S31" s="68">
-        <v>109.25</v>
-      </c>
-      <c r="T31" s="69" t="s">
+      <c r="S31" s="39">
+        <v>109.25</v>
+      </c>
+      <c r="T31" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41">
+        <f>C12/H12</f>
+        <v>219.84274589961</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41">
+        <f>H12*60</f>
+        <v>16.96668</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41">
+        <f>J12*60</f>
+        <v>20.3556</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="41">
+        <f>C13/H13</f>
+        <v>232.089145666679</v>
+      </c>
+      <c r="G35" s="41">
+        <f>H13*60</f>
+        <v>22.96668</v>
+      </c>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41">
+        <f>J13*60</f>
+        <v>32.07414</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="41">
+        <f>C14/H14</f>
+        <v>239.262242687115</v>
+      </c>
+      <c r="G36" s="41">
+        <f>H14*60</f>
+        <v>28.96668</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41">
+        <f>J14*60</f>
+        <v>43.79268</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="41">
+        <f>C15/H15</f>
+        <v>183.473458181024</v>
+      </c>
+      <c r="G37" s="41">
+        <f>H15*60</f>
+        <v>18.40002</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41">
+        <f>J15*60</f>
+        <v>18.33876</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="41">
+        <f>C16/H16</f>
+        <v>203.18786378044</v>
+      </c>
+      <c r="G38" s="41">
+        <f>H16*60</f>
+        <v>24.40002</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41">
+        <f>J16*60</f>
+        <v>29.9223</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="41">
+        <f>C17/H17</f>
+        <v>215.120272289295</v>
+      </c>
+      <c r="G39" s="41">
+        <f>H17*60</f>
+        <v>30.40002</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41">
+        <f>J17*60</f>
+        <v>41.50578</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/analysis/cfg-case-study/result-summary/abu-analysis/common_case_economics_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/common_case_economics_1500_3000_ft.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" tabRatio="894"/>
+    <workbookView windowWidth="27948" windowHeight="12240" tabRatio="894" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline (charger; reserve-100)" sheetId="7" r:id="rId1"/>
+    <sheet name="ABU_AT (charger; reserve-100)" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>Assumptions:</t>
   </si>
@@ -387,6 +388,83 @@
   </si>
   <si>
     <t>Supernal S-A2</t>
+  </si>
+  <si>
+    <t>No. ABU</t>
+  </si>
+  <si>
+    <t>eVTOL nominal pack voltage 
+[V]</t>
+  </si>
+  <si>
+    <t>ABU nominal pack voltage 
+[V]</t>
+  </si>
+  <si>
+    <t>n_abus</t>
+  </si>
+  <si>
+    <t>v_pack_nom_v_main</t>
+  </si>
+  <si>
+    <t>v_pack_nom_v_abu</t>
+  </si>
+  <si>
+    <t>t_flight_hr = main mission time (after ABU detachment)</t>
+  </si>
+  <si>
+    <t>t_cycle_hr = t_flight_hr + t_charge_hr_total + t_ground_ops_hr</t>
+  </si>
+  <si>
+    <t>soc_start_main = E_reserve_kwh / E_total_kwh</t>
+  </si>
+  <si>
+    <t>dod_abu = (E_abu_used_per_abu_kwh + E_abu_ops_per_abu) / E_pack_kwh_abu</t>
+  </si>
+  <si>
+    <t>ABU detachs after acceleration climb (before cruise)</t>
+  </si>
+  <si>
+    <t>Total charge time per cycle is the slower of the two (parallel charging)</t>
+  </si>
+  <si>
+    <t>E_pack_kwh_main</t>
+  </si>
+  <si>
+    <t>E_pack_kwh_abu</t>
+  </si>
+  <si>
+    <t>dod_main</t>
+  </si>
+  <si>
+    <t>dod_abu</t>
+  </si>
+  <si>
+    <t>soc_start_main</t>
+  </si>
+  <si>
+    <t>soc_start_abu</t>
+  </si>
+  <si>
+    <t>t_charge_hr_main</t>
+  </si>
+  <si>
+    <t>t_charge_hr_abu</t>
+  </si>
+  <si>
+    <t>t_charge_hr_total</t>
+  </si>
+  <si>
+    <t>P_cc_kw_main</t>
+  </si>
+  <si>
+    <t>P_cc_kw_abu</t>
+  </si>
+  <si>
+    <t>charger_limit_indicator_flag_main</t>
+  </si>
+  <si>
+    <t>charger_limit_indicator_flag_abu</t>
   </si>
 </sst>
 </file>
@@ -842,7 +920,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -886,32 +990,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1205,7 +1283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1228,79 +1306,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,16 +1396,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,7 +1426,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1351,22 +1444,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,7 +1477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,10 +1492,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1408,6 +1504,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1423,49 +1618,19 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1474,7 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1851,1986 +2016,1986 @@
       <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:15">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="59"/>
+      <c r="O3" s="64"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>115</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <v>0.95</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>800</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="17">
         <v>0.05</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="65">
         <v>1</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="66">
         <v>0.8</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="67">
         <v>0.2833</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="63"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" customHeight="1" spans="12:21">
-      <c r="L5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="L5" s="64"/>
+      <c r="O5" s="64"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
     <row r="6" customHeight="1" spans="1:18">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="77"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" customHeight="1" spans="1:18">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="58"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="63"/>
     </row>
     <row r="8" customHeight="1" spans="2:18">
       <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="58"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="63"/>
     </row>
     <row r="9" customHeight="1" spans="2:18">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="78"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="90"/>
     </row>
     <row r="10" customHeight="1" spans="2:18">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="58"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="63"/>
     </row>
     <row r="11" customHeight="1" spans="2:18">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="58"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" customHeight="1" spans="2:18">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="58"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" customHeight="1" spans="2:18">
-      <c r="B13" s="27"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="58"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" customHeight="1" spans="2:18">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="58"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" customHeight="1" spans="2:18">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="58"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="63"/>
     </row>
     <row r="16" customHeight="1" spans="2:18">
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="58"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="63"/>
     </row>
     <row r="17" customHeight="1" spans="2:18">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="77"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="88"/>
     </row>
     <row r="18" customHeight="1" spans="2:18">
-      <c r="B18" s="28"/>
-      <c r="C18" s="88" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="58"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="63"/>
     </row>
     <row r="19" customHeight="1" spans="2:18">
-      <c r="B19" s="28"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="88" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="58"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="63"/>
     </row>
     <row r="20" customHeight="1" spans="2:18">
-      <c r="B20" s="28"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="88" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="58"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="63"/>
     </row>
     <row r="21" customHeight="1" spans="2:18">
-      <c r="B21" s="28"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="88" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="58"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="63"/>
     </row>
     <row r="22" customHeight="1" spans="2:18">
-      <c r="B22" s="28"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="88" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="58"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="63"/>
     </row>
     <row r="23" customHeight="1" spans="2:18">
-      <c r="B23" s="28"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="88" t="s">
+      <c r="B23" s="31"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="58"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="63"/>
     </row>
     <row r="24" customHeight="1" spans="2:18">
-      <c r="B24" s="28"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="88" t="s">
+      <c r="B24" s="31"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="58"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="63"/>
     </row>
     <row r="25" customHeight="1" spans="2:18">
-      <c r="B25" s="28"/>
-      <c r="C25" s="89" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="58"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="63"/>
     </row>
     <row r="26" customHeight="1" spans="2:18">
-      <c r="B26" s="24"/>
-      <c r="C26" s="90" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="78"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="90"/>
     </row>
     <row r="27" customHeight="1"/>
     <row r="28" customHeight="1"/>
     <row r="29" spans="1:21">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="79"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="92"/>
     </row>
     <row r="30" ht="60" customHeight="1" spans="1:24">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="I30" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="36" t="s">
+      <c r="J30" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="36" t="s">
+      <c r="M30" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="N30" s="36" t="s">
+      <c r="N30" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="36" t="s">
+      <c r="O30" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="P30" s="36" t="s">
+      <c r="P30" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="Q30" s="80" t="s">
+      <c r="Q30" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="36" t="s">
+      <c r="R30" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="S30" s="36" t="s">
+      <c r="S30" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="T30" s="36" t="s">
+      <c r="T30" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="U30" s="81" t="s">
+      <c r="U30" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="37">
+      <c r="A31" s="42">
         <v>1500</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="43">
         <v>30</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="44">
         <v>62.166692</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="45">
         <v>62.166692</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E31" s="45">
         <v>0.796206</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="45">
         <v>0.203794</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="45">
         <v>1</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="45">
         <v>0.233333</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="45">
         <v>0.756222</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="45">
         <v>0.33926</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="45">
         <v>0.416963</v>
       </c>
-      <c r="L31" s="40">
+      <c r="L31" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="45">
         <v>1.272856</v>
       </c>
-      <c r="N31" s="68">
+      <c r="N31" s="107">
         <v>18</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="45">
         <v>4.2</v>
       </c>
-      <c r="P31" s="40">
+      <c r="P31" s="45">
         <v>19.8</v>
       </c>
-      <c r="Q31" s="40">
+      <c r="Q31" s="45">
         <v>1.088596</v>
       </c>
-      <c r="R31" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="S31" s="40">
+      <c r="R31" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="S31" s="45">
         <v>310.833458</v>
       </c>
-      <c r="T31" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="U31" s="82" t="s">
+      <c r="T31" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="U31" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V31" s="55"/>
-      <c r="W31" s="55"/>
-      <c r="X31" s="55"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="60"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43">
         <v>45</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="44">
         <v>88.838619</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="45">
         <v>88.838619</v>
       </c>
-      <c r="E32" s="40">
+      <c r="E32" s="45">
         <v>0.857391</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="46">
         <v>0.142609</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="46">
         <v>1</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="46">
         <v>0.333333</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="46">
         <v>1.077485</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="46">
         <v>0.534569</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="46">
         <v>0.542916</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="46">
         <v>1.694119</v>
       </c>
-      <c r="N32" s="69">
+      <c r="N32" s="108">
         <v>14</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="46">
         <v>4.666667</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="46">
         <v>19.333333</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="46">
         <v>0.282337</v>
       </c>
-      <c r="R32" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="S32" s="41">
+      <c r="R32" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="S32" s="46">
         <v>444.193096</v>
       </c>
-      <c r="T32" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="U32" s="82" t="s">
+      <c r="T32" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U32" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43">
         <v>60</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="44">
         <v>115.510547</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="45">
         <v>115.510547</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="45">
         <v>0.89032</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="46">
         <v>0.10968</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="46">
         <v>1</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="46">
         <v>0.433333</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="46">
         <v>1.386276</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="46">
         <v>0.729878</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="46">
         <v>0.656398</v>
       </c>
-      <c r="L33" s="40">
+      <c r="L33" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="46">
         <v>2.10291</v>
       </c>
-      <c r="N33" s="70">
+      <c r="N33" s="109">
         <v>11</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="46">
         <v>4.766667</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="46">
         <v>19.233333</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="46">
         <v>0.867995</v>
       </c>
-      <c r="R33" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="S33" s="41">
+      <c r="R33" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="S33" s="46">
         <v>577.552735</v>
       </c>
-      <c r="T33" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="U33" s="82" t="s">
+      <c r="T33" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U33" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="42">
+      <c r="A34" s="47">
         <v>3000</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="48">
         <v>30</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="49">
         <v>56.265255</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="50">
         <v>56.265255</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="50">
         <v>0.793472</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="51">
         <v>0.206528</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="51">
         <v>1</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="51">
         <v>0.2475</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="51">
         <v>0.692526</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="51">
         <v>0.305646</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="51">
         <v>0.38688</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="51">
         <v>1.223326</v>
       </c>
-      <c r="N34" s="71">
+      <c r="N34" s="110">
         <v>19</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="51">
         <v>4.7025</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="51">
         <v>19.2975</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="51">
         <v>0.756802</v>
       </c>
-      <c r="R34" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S34" s="46">
+      <c r="R34" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S34" s="51">
         <v>281.326275</v>
       </c>
-      <c r="T34" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U34" s="83" t="s">
+      <c r="T34" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U34" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43">
+      <c r="A35" s="47"/>
+      <c r="B35" s="48">
         <v>45</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="49">
         <v>82.629799</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="50">
         <v>82.629799</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="50">
         <v>0.859369</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="51">
         <v>0.140631</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="51">
         <v>1</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="51">
         <v>0.3475</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="51">
         <v>1.013576</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="51">
         <v>0.498705</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="51">
         <v>0.514872</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="51">
         <v>1.644376</v>
       </c>
-      <c r="N35" s="71">
+      <c r="N35" s="110">
         <v>14</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="51">
         <v>4.865</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="51">
         <v>19.135</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="51">
         <v>0.97873</v>
       </c>
-      <c r="R35" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S35" s="46">
+      <c r="R35" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S35" s="51">
         <v>413.148995</v>
       </c>
-      <c r="T35" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U35" s="83" t="s">
+      <c r="T35" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U35" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
+      <c r="V35" s="60"/>
+      <c r="W35" s="60"/>
+      <c r="X35" s="60"/>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43">
+      <c r="A36" s="47"/>
+      <c r="B36" s="48">
         <v>60</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="49">
         <v>108.994343</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="50">
         <v>108.994343</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="50">
         <v>0.893386</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="51">
         <v>0.106614</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="51">
         <v>1</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="51">
         <v>0.4475</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="51">
         <v>1.321382</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="51">
         <v>0.691763</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="51">
         <v>0.629619</v>
       </c>
-      <c r="L36" s="45">
+      <c r="L36" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="51">
         <v>2.052182</v>
       </c>
-      <c r="N36" s="71">
+      <c r="N36" s="110">
         <v>11</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="51">
         <v>4.9225</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="51">
         <v>19.0775</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="51">
         <v>1.425993</v>
       </c>
-      <c r="R36" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S36" s="46">
+      <c r="R36" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S36" s="51">
         <v>544.971714</v>
       </c>
-      <c r="T36" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U36" s="83" t="s">
+      <c r="T36" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U36" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="84"/>
-      <c r="V37" s="55"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="37">
+      <c r="A38" s="42">
         <v>1500</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="43">
         <v>30</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="44">
         <v>41.948037</v>
       </c>
-      <c r="D38" s="40">
+      <c r="D38" s="45">
         <v>41.948037</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="45">
         <v>0.791634</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="45">
         <v>0.208366</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="45">
         <v>1</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="45">
         <v>0.233333</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="45">
         <v>0.536665</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="45">
         <v>0.227166</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="45">
         <v>0.309499</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="45">
         <v>1.053298</v>
       </c>
-      <c r="N38" s="72">
+      <c r="N38" s="111">
         <v>22</v>
       </c>
-      <c r="O38" s="40">
+      <c r="O38" s="45">
         <v>5.133333</v>
       </c>
-      <c r="P38" s="40">
+      <c r="P38" s="45">
         <v>18.866667</v>
       </c>
-      <c r="Q38" s="40">
+      <c r="Q38" s="45">
         <v>0.827442</v>
       </c>
-      <c r="R38" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="S38" s="40">
+      <c r="R38" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="S38" s="45">
         <v>209.740185</v>
       </c>
-      <c r="T38" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="U38" s="82" t="s">
+      <c r="T38" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="U38" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43">
         <v>45</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="44">
         <v>58.736623</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="45">
         <v>58.736623</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="45">
         <v>0.851191</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="46">
         <v>0.148809</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="46">
         <v>1</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="46">
         <v>0.333333</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="46">
         <v>0.749695</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="46">
         <v>0.350103</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="46">
         <v>0.399592</v>
       </c>
-      <c r="L39" s="40">
+      <c r="L39" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="46">
         <v>1.366329</v>
       </c>
-      <c r="N39" s="70">
+      <c r="N39" s="109">
         <v>17</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="46">
         <v>5.666667</v>
       </c>
-      <c r="P39" s="41">
+      <c r="P39" s="46">
         <v>18.333333</v>
       </c>
-      <c r="Q39" s="41">
+      <c r="Q39" s="46">
         <v>0.772413</v>
       </c>
-      <c r="R39" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="S39" s="41">
+      <c r="R39" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="S39" s="46">
         <v>293.683113</v>
       </c>
-      <c r="T39" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="U39" s="82" t="s">
+      <c r="T39" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U39" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
+      <c r="V39" s="60"/>
+      <c r="W39" s="60"/>
+      <c r="X39" s="60"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43">
         <v>60</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="44">
         <v>75.525208</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="45">
         <v>75.525208</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="45">
         <v>0.88427</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="46">
         <v>0.11573</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="46">
         <v>1</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="46">
         <v>0.433333</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="46">
         <v>0.954933</v>
       </c>
-      <c r="J40" s="41">
+      <c r="J40" s="46">
         <v>0.47304</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="46">
         <v>0.481893</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M40" s="41">
+      <c r="M40" s="46">
         <v>1.671566</v>
       </c>
-      <c r="N40" s="70">
+      <c r="N40" s="109">
         <v>14</v>
       </c>
-      <c r="O40" s="41">
+      <c r="O40" s="46">
         <v>6.066667</v>
       </c>
-      <c r="P40" s="41">
+      <c r="P40" s="46">
         <v>17.933333</v>
       </c>
-      <c r="Q40" s="41">
+      <c r="Q40" s="46">
         <v>0.598077</v>
       </c>
-      <c r="R40" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="S40" s="41">
+      <c r="R40" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="S40" s="46">
         <v>377.626041</v>
       </c>
-      <c r="T40" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="U40" s="82" t="s">
+      <c r="T40" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U40" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
+      <c r="V40" s="60"/>
+      <c r="W40" s="60"/>
+      <c r="X40" s="60"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="42">
+      <c r="A41" s="47">
         <v>3000</v>
       </c>
-      <c r="B41" s="43">
+      <c r="B41" s="48">
         <v>30</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="49">
         <v>41.522147</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="50">
         <v>41.522147</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="50">
         <v>0.782449</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="51">
         <v>0.217551</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="51">
         <v>1</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="51">
         <v>0.2475</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="51">
         <v>0.528455</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="51">
         <v>0.221369</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="51">
         <v>0.307086</v>
       </c>
-      <c r="L41" s="45">
+      <c r="L41" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="51">
         <v>1.059255</v>
       </c>
-      <c r="N41" s="71">
+      <c r="N41" s="110">
         <v>22</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="51">
         <v>5.445</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="51">
         <v>18.555</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="51">
         <v>0.696384</v>
       </c>
-      <c r="R41" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S41" s="46">
+      <c r="R41" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S41" s="51">
         <v>207.610737</v>
       </c>
-      <c r="T41" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U41" s="83" t="s">
+      <c r="T41" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U41" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43">
+      <c r="A42" s="47"/>
+      <c r="B42" s="48">
         <v>45</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="49">
         <v>58.408147</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="50">
         <v>58.408147</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="50">
         <v>0.845344</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="51">
         <v>0.154656</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="51">
         <v>1</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="51">
         <v>0.3475</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="51">
         <v>0.742932</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="51">
         <v>0.345019</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="51">
         <v>0.397913</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L42" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="51">
         <v>1.373732</v>
       </c>
-      <c r="N42" s="71">
+      <c r="N42" s="110">
         <v>17</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="51">
         <v>5.9075</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="51">
         <v>18.0925</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="51">
         <v>0.646561</v>
       </c>
-      <c r="R42" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S42" s="46">
+      <c r="R42" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S42" s="51">
         <v>292.040733</v>
       </c>
-      <c r="T42" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U42" s="83" t="s">
+      <c r="T42" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U42" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V42" s="55"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
+      <c r="V42" s="60"/>
+      <c r="W42" s="60"/>
+      <c r="X42" s="60"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43">
+      <c r="A43" s="47"/>
+      <c r="B43" s="48">
         <v>60</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="49">
         <v>75.294146</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="50">
         <v>75.294146</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="50">
         <v>0.880028</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="51">
         <v>0.119972</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="51">
         <v>1</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="51">
         <v>0.4475</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="51">
         <v>0.949473</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="51">
         <v>0.46867</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="51">
         <v>0.480803</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="51">
         <v>1.680273</v>
       </c>
-      <c r="N43" s="71">
+      <c r="N43" s="110">
         <v>14</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="51">
         <v>6.265</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="51">
         <v>17.735</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="51">
         <v>0.476182</v>
       </c>
-      <c r="R43" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S43" s="46">
+      <c r="R43" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S43" s="51">
         <v>376.47073</v>
       </c>
-      <c r="T43" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U43" s="83" t="s">
+      <c r="T43" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U43" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V43" s="55"/>
-      <c r="W43" s="55"/>
-      <c r="X43" s="55"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="55"/>
-      <c r="W44" s="55"/>
-      <c r="X44" s="55"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="53"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="101"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="49">
+      <c r="A45" s="54">
         <v>1500</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="54">
         <v>30</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="55">
         <v>62.644821</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="56">
         <v>62.644821</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="56">
         <v>0.797159</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="56">
         <v>0.202841</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="56">
         <v>1</v>
       </c>
-      <c r="H45" s="51">
+      <c r="H45" s="56">
         <v>0.233333</v>
       </c>
-      <c r="I45" s="51">
+      <c r="I45" s="56">
         <v>0.761775</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="56">
         <v>0.342416</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="56">
         <v>0.41936</v>
       </c>
-      <c r="L45" s="51">
+      <c r="L45" s="56">
         <v>0.2833</v>
       </c>
-      <c r="M45" s="51">
+      <c r="M45" s="56">
         <v>1.278409</v>
       </c>
-      <c r="N45" s="73">
+      <c r="N45" s="112">
         <v>18</v>
       </c>
-      <c r="O45" s="51">
+      <c r="O45" s="56">
         <v>4.2</v>
       </c>
-      <c r="P45" s="51">
+      <c r="P45" s="56">
         <v>19.8</v>
       </c>
-      <c r="Q45" s="40">
+      <c r="Q45" s="45">
         <v>0.988647</v>
       </c>
-      <c r="R45" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="S45" s="40">
+      <c r="R45" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="S45" s="45">
         <v>313.224106</v>
       </c>
-      <c r="T45" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="U45" s="85" t="s">
+      <c r="T45" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="U45" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55"/>
+      <c r="V45" s="60"/>
+      <c r="W45" s="60"/>
+      <c r="X45" s="60"/>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43">
         <v>45</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="44">
         <v>89.13266</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="45">
         <v>89.13266</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="45">
         <v>0.857438</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="45">
         <v>0.142562</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="45">
         <v>1</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="45">
         <v>0.333333</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="45">
         <v>1.080604</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="45">
         <v>0.536377</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="45">
         <v>0.544228</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M46" s="40">
+      <c r="M46" s="45">
         <v>1.697238</v>
       </c>
-      <c r="N46" s="68">
+      <c r="N46" s="107">
         <v>14</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="45">
         <v>4.666667</v>
       </c>
-      <c r="P46" s="40">
+      <c r="P46" s="45">
         <v>19.333333</v>
       </c>
-      <c r="Q46" s="40">
+      <c r="Q46" s="45">
         <v>0.23867</v>
       </c>
-      <c r="R46" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="S46" s="40">
+      <c r="R46" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="S46" s="45">
         <v>445.6633</v>
       </c>
-      <c r="T46" s="40">
-        <v>109.25</v>
-      </c>
-      <c r="U46" s="82" t="s">
+      <c r="T46" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="U46" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
+      <c r="V46" s="60"/>
+      <c r="W46" s="60"/>
+      <c r="X46" s="60"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43">
         <v>60</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="44">
         <v>115.620499</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="45">
         <v>115.620499</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="45">
         <v>0.890098</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="46">
         <v>0.109902</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="46">
         <v>1</v>
       </c>
-      <c r="H47" s="41">
+      <c r="H47" s="46">
         <v>0.433333</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="46">
         <v>1.387183</v>
       </c>
-      <c r="J47" s="41">
+      <c r="J47" s="46">
         <v>0.730338</v>
       </c>
-      <c r="K47" s="41">
+      <c r="K47" s="46">
         <v>0.656845</v>
       </c>
-      <c r="L47" s="40">
+      <c r="L47" s="45">
         <v>0.2833</v>
       </c>
-      <c r="M47" s="41">
+      <c r="M47" s="46">
         <v>2.103816</v>
       </c>
-      <c r="N47" s="70">
+      <c r="N47" s="109">
         <v>11</v>
       </c>
-      <c r="O47" s="41">
+      <c r="O47" s="46">
         <v>4.766667</v>
       </c>
-      <c r="P47" s="41">
+      <c r="P47" s="46">
         <v>19.233333</v>
       </c>
-      <c r="Q47" s="41">
+      <c r="Q47" s="46">
         <v>0.85802</v>
       </c>
-      <c r="R47" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="S47" s="41">
+      <c r="R47" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="S47" s="46">
         <v>578.102494</v>
       </c>
-      <c r="T47" s="41">
-        <v>109.25</v>
-      </c>
-      <c r="U47" s="82" t="s">
+      <c r="T47" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U47" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="V47" s="55"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
+      <c r="V47" s="60"/>
+      <c r="W47" s="60"/>
+      <c r="X47" s="60"/>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="43">
+      <c r="A48" s="48">
         <v>3000</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="48">
         <v>30</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="49">
         <v>57.92778</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="50">
         <v>57.92778</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="50">
         <v>0.795178</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="51">
         <v>0.204822</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="51">
         <v>1</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="51">
         <v>0.2475</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="51">
         <v>0.711033</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="51">
         <v>0.315582</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="51">
         <v>0.39545</v>
       </c>
-      <c r="L48" s="45">
+      <c r="L48" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="51">
         <v>1.241833</v>
       </c>
-      <c r="N48" s="71">
+      <c r="N48" s="110">
         <v>19</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="51">
         <v>4.7025</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="51">
         <v>19.2975</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="51">
         <v>0.405182</v>
       </c>
-      <c r="R48" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S48" s="46">
+      <c r="R48" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S48" s="51">
         <v>289.638899</v>
       </c>
-      <c r="T48" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U48" s="83" t="s">
+      <c r="T48" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U48" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V48" s="55"/>
-      <c r="W48" s="55"/>
-      <c r="X48" s="55"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="60"/>
+      <c r="X48" s="60"/>
     </row>
     <row r="49" spans="1:24">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48">
         <v>45</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="49">
         <v>84.298844</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="50">
         <v>84.298844</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="50">
         <v>0.859252</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="51">
         <v>0.140748</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="51">
         <v>1</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="51">
         <v>0.3475</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="51">
         <v>1.031167</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="51">
         <v>0.508688</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="51">
         <v>0.522479</v>
       </c>
-      <c r="L49" s="45">
+      <c r="L49" s="50">
         <v>0.2833</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="51">
         <v>1.661967</v>
       </c>
-      <c r="N49" s="71">
+      <c r="N49" s="110">
         <v>14</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="51">
         <v>4.865</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="51">
         <v>19.135</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="51">
         <v>0.73246</v>
       </c>
-      <c r="R49" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="S49" s="46">
+      <c r="R49" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="S49" s="51">
         <v>421.494218</v>
       </c>
-      <c r="T49" s="46">
-        <v>109.25</v>
-      </c>
-      <c r="U49" s="83" t="s">
+      <c r="T49" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U49" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="V49" s="55"/>
-      <c r="W49" s="55"/>
-      <c r="X49" s="55"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
     </row>
     <row r="50" spans="1:24">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57">
         <v>60</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="58">
         <v>110.669908</v>
       </c>
-      <c r="D50" s="54">
+      <c r="D50" s="59">
         <v>110.669908</v>
       </c>
-      <c r="E50" s="54">
+      <c r="E50" s="59">
         <v>0.89279</v>
       </c>
-      <c r="F50" s="54">
+      <c r="F50" s="59">
         <v>0.10721</v>
       </c>
-      <c r="G50" s="54">
+      <c r="G50" s="59">
         <v>1</v>
       </c>
-      <c r="H50" s="54">
+      <c r="H50" s="59">
         <v>0.4475</v>
       </c>
-      <c r="I50" s="54">
+      <c r="I50" s="59">
         <v>1.338353</v>
       </c>
-      <c r="J50" s="54">
+      <c r="J50" s="59">
         <v>0.701794</v>
       </c>
-      <c r="K50" s="54">
+      <c r="K50" s="59">
         <v>0.636559</v>
       </c>
-      <c r="L50" s="54">
+      <c r="L50" s="59">
         <v>0.2833</v>
       </c>
-      <c r="M50" s="54">
+      <c r="M50" s="59">
         <v>2.069153</v>
       </c>
-      <c r="N50" s="74">
+      <c r="N50" s="113">
         <v>11</v>
       </c>
-      <c r="O50" s="54">
+      <c r="O50" s="59">
         <v>4.9225</v>
       </c>
-      <c r="P50" s="54">
+      <c r="P50" s="59">
         <v>19.0775</v>
       </c>
-      <c r="Q50" s="54">
+      <c r="Q50" s="59">
         <v>1.239313</v>
       </c>
-      <c r="R50" s="54">
-        <v>109.25</v>
-      </c>
-      <c r="S50" s="54">
+      <c r="R50" s="59">
+        <v>109.25</v>
+      </c>
+      <c r="S50" s="59">
         <v>553.349538</v>
       </c>
-      <c r="T50" s="54">
-        <v>109.25</v>
-      </c>
-      <c r="U50" s="86" t="s">
+      <c r="T50" s="59">
+        <v>109.25</v>
+      </c>
+      <c r="U50" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
     </row>
     <row r="51" spans="1:24">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
-      <c r="U51" s="75"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
     </row>
     <row r="52" spans="1:24">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="55"/>
-      <c r="L52" s="55"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-      <c r="T52" s="75"/>
-      <c r="U52" s="75"/>
-      <c r="V52" s="55"/>
-      <c r="W52" s="55"/>
-      <c r="X52" s="55"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
     </row>
     <row r="53" spans="1:24">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="55"/>
-      <c r="L53" s="55"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
-      <c r="V53" s="55"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
     </row>
     <row r="54" spans="3:9">
-      <c r="C54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
     </row>
     <row r="55" spans="3:9">
-      <c r="C55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
+      <c r="C55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
     </row>
     <row r="56" spans="3:9">
-      <c r="C56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" spans="3:9">
-      <c r="C57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
+      <c r="C57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
     </row>
     <row r="58" spans="3:9">
-      <c r="C58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3848,4 +4013,2293 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.1759259259259" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="12" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="13" max="21" width="11.7777777777778" style="2" customWidth="1"/>
+    <col min="22" max="23" width="22.0648148148148" style="2" customWidth="1"/>
+    <col min="24" max="55" width="8.77777777777778" style="1" customWidth="1"/>
+    <col min="56" max="16361" width="9" style="1"/>
+    <col min="16363" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" ht="94" customHeight="1" spans="1:23">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:15">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="O3" s="64"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:15">
+      <c r="A4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>115</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>800</v>
+      </c>
+      <c r="G4" s="16">
+        <v>400</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="65">
+        <v>1</v>
+      </c>
+      <c r="K4" s="66">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="67">
+        <v>0.2833</v>
+      </c>
+      <c r="M4" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="69"/>
+    </row>
+    <row r="5" customHeight="1" spans="12:23">
+      <c r="L5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:18">
+      <c r="A6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="88"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:18">
+      <c r="A7" s="18"/>
+      <c r="B7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="63"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:18">
+      <c r="B8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="63"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:18">
+      <c r="B9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="89"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:18">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="89"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:18">
+      <c r="B11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="89"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:18">
+      <c r="B12" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="89"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:18">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="90"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:18">
+      <c r="B14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="63"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:18">
+      <c r="B15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="63"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:18">
+      <c r="B16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="63"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:18">
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="63"/>
+    </row>
+    <row r="18" customHeight="1" spans="2:18">
+      <c r="B18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="63"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:18">
+      <c r="B19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="63"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:18">
+      <c r="B20" s="31"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="63"/>
+    </row>
+    <row r="21" customHeight="1" spans="2:18">
+      <c r="B21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="88"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:18">
+      <c r="B22" s="31"/>
+      <c r="C22" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="63"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:18">
+      <c r="B23" s="31"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="117" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="63"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:18">
+      <c r="B24" s="31"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="63"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:18">
+      <c r="B25" s="31"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="117" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="63"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:18">
+      <c r="B26" s="31"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="63"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:18">
+      <c r="B27" s="31"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="117" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="63"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:18">
+      <c r="B28" s="31"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="117" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="63"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:18">
+      <c r="B29" s="31"/>
+      <c r="C29" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="63"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:18">
+      <c r="B30" s="27"/>
+      <c r="C30" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="90"/>
+    </row>
+    <row r="31" customHeight="1"/>
+    <row r="32" customHeight="1"/>
+    <row r="33" spans="1:23">
+      <c r="A33" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="91"/>
+      <c r="V33" s="91"/>
+      <c r="W33" s="92"/>
+    </row>
+    <row r="34" ht="60" customHeight="1" spans="1:26">
+      <c r="A34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L34" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="N34" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q34" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="T34" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="U34" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="V34" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="W34" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="42">
+        <v>1500</v>
+      </c>
+      <c r="B35" s="43">
+        <v>30</v>
+      </c>
+      <c r="C35" s="44">
+        <v>55.304063</v>
+      </c>
+      <c r="D35" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E35" s="45">
+        <v>0.770917</v>
+      </c>
+      <c r="F35" s="45">
+        <v>0.672195</v>
+      </c>
+      <c r="G35" s="45">
+        <v>0.229083</v>
+      </c>
+      <c r="H35" s="45">
+        <v>0.327805</v>
+      </c>
+      <c r="I35" s="45">
+        <v>1</v>
+      </c>
+      <c r="J35" s="45">
+        <v>0.243611</v>
+      </c>
+      <c r="K35" s="45">
+        <v>0.670896</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0.148485</v>
+      </c>
+      <c r="M35" s="45">
+        <v>0.670896</v>
+      </c>
+      <c r="N35" s="74">
+        <v>0.2833</v>
+      </c>
+      <c r="O35" s="45">
+        <v>1.197807</v>
+      </c>
+      <c r="P35" s="75">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="45">
+        <v>4.872222</v>
+      </c>
+      <c r="R35" s="45">
+        <v>19.127778</v>
+      </c>
+      <c r="S35" s="45">
+        <v>0.043859</v>
+      </c>
+      <c r="T35" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="U35" s="97">
+        <v>109.25</v>
+      </c>
+      <c r="V35" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="W35" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X35" s="60"/>
+      <c r="Y35" s="60"/>
+      <c r="Z35" s="60"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43">
+        <v>45</v>
+      </c>
+      <c r="C36" s="44">
+        <v>81.732238</v>
+      </c>
+      <c r="D36" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E36" s="45">
+        <v>0.844991</v>
+      </c>
+      <c r="F36" s="46">
+        <v>0.672195</v>
+      </c>
+      <c r="G36" s="46">
+        <v>0.155009</v>
+      </c>
+      <c r="H36" s="46">
+        <v>0.327805</v>
+      </c>
+      <c r="I36" s="46">
+        <v>1</v>
+      </c>
+      <c r="J36" s="46">
+        <v>0.343611</v>
+      </c>
+      <c r="K36" s="46">
+        <v>0.993291</v>
+      </c>
+      <c r="L36" s="45">
+        <v>0.148485</v>
+      </c>
+      <c r="M36" s="46">
+        <v>0.993291</v>
+      </c>
+      <c r="N36" s="76">
+        <v>0.2833</v>
+      </c>
+      <c r="O36" s="46">
+        <v>1.620202</v>
+      </c>
+      <c r="P36" s="77">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="46">
+        <v>4.810556</v>
+      </c>
+      <c r="R36" s="46">
+        <v>19.189444</v>
+      </c>
+      <c r="S36" s="46">
+        <v>1.317175</v>
+      </c>
+      <c r="T36" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U36" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="V36" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W36" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43">
+        <v>60</v>
+      </c>
+      <c r="C37" s="44">
+        <v>108.160413</v>
+      </c>
+      <c r="D37" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E37" s="45">
+        <v>0.882866</v>
+      </c>
+      <c r="F37" s="46">
+        <v>0.672195</v>
+      </c>
+      <c r="G37" s="46">
+        <v>0.117134</v>
+      </c>
+      <c r="H37" s="46">
+        <v>0.327805</v>
+      </c>
+      <c r="I37" s="46">
+        <v>1</v>
+      </c>
+      <c r="J37" s="46">
+        <v>0.443611</v>
+      </c>
+      <c r="K37" s="46">
+        <v>1.302207</v>
+      </c>
+      <c r="L37" s="45">
+        <v>0.148485</v>
+      </c>
+      <c r="M37" s="46">
+        <v>1.302207</v>
+      </c>
+      <c r="N37" s="78">
+        <v>0.2833</v>
+      </c>
+      <c r="O37" s="46">
+        <v>2.029118</v>
+      </c>
+      <c r="P37" s="77">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="46">
+        <v>4.879722</v>
+      </c>
+      <c r="R37" s="46">
+        <v>19.120278</v>
+      </c>
+      <c r="S37" s="46">
+        <v>1.679702</v>
+      </c>
+      <c r="T37" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U37" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="V37" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W37" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="47">
+        <v>3000</v>
+      </c>
+      <c r="B38" s="48">
+        <v>30</v>
+      </c>
+      <c r="C38" s="49">
+        <v>45.95503</v>
+      </c>
+      <c r="D38" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E38" s="50">
+        <v>0.747137</v>
+      </c>
+      <c r="F38" s="51">
+        <v>0.986999</v>
+      </c>
+      <c r="G38" s="51">
+        <v>0.252863</v>
+      </c>
+      <c r="H38" s="51">
+        <v>0.013001</v>
+      </c>
+      <c r="I38" s="51">
+        <v>1</v>
+      </c>
+      <c r="J38" s="51">
+        <v>0.241667</v>
+      </c>
+      <c r="K38" s="51">
+        <v>0.562006</v>
+      </c>
+      <c r="L38" s="50">
+        <v>0.178741</v>
+      </c>
+      <c r="M38" s="51">
+        <v>0.562006</v>
+      </c>
+      <c r="N38" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O38" s="51">
+        <v>1.086973</v>
+      </c>
+      <c r="P38" s="80">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="51">
+        <v>5.316667</v>
+      </c>
+      <c r="R38" s="51">
+        <v>18.683333</v>
+      </c>
+      <c r="S38" s="51">
+        <v>0.086592</v>
+      </c>
+      <c r="T38" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U38" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V38" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W38" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="47"/>
+      <c r="B39" s="48">
+        <v>45</v>
+      </c>
+      <c r="C39" s="49">
+        <v>71.940175</v>
+      </c>
+      <c r="D39" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E39" s="50">
+        <v>0.838472</v>
+      </c>
+      <c r="F39" s="51">
+        <v>0.986999</v>
+      </c>
+      <c r="G39" s="51">
+        <v>0.161528</v>
+      </c>
+      <c r="H39" s="51">
+        <v>0.013001</v>
+      </c>
+      <c r="I39" s="51">
+        <v>1</v>
+      </c>
+      <c r="J39" s="51">
+        <v>0.341667</v>
+      </c>
+      <c r="K39" s="51">
+        <v>0.885291</v>
+      </c>
+      <c r="L39" s="50">
+        <v>0.178741</v>
+      </c>
+      <c r="M39" s="51">
+        <v>0.885291</v>
+      </c>
+      <c r="N39" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O39" s="51">
+        <v>1.510257</v>
+      </c>
+      <c r="P39" s="80">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="51">
+        <v>5.125</v>
+      </c>
+      <c r="R39" s="51">
+        <v>18.875</v>
+      </c>
+      <c r="S39" s="51">
+        <v>1.34614</v>
+      </c>
+      <c r="T39" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U39" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V39" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W39" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="47"/>
+      <c r="B40" s="48">
+        <v>60</v>
+      </c>
+      <c r="C40" s="49">
+        <v>97.92532</v>
+      </c>
+      <c r="D40" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E40" s="50">
+        <v>0.881335</v>
+      </c>
+      <c r="F40" s="51">
+        <v>0.986999</v>
+      </c>
+      <c r="G40" s="51">
+        <v>0.118665</v>
+      </c>
+      <c r="H40" s="51">
+        <v>0.013001</v>
+      </c>
+      <c r="I40" s="51">
+        <v>1</v>
+      </c>
+      <c r="J40" s="51">
+        <v>0.441667</v>
+      </c>
+      <c r="K40" s="51">
+        <v>1.193485</v>
+      </c>
+      <c r="L40" s="50">
+        <v>0.178741</v>
+      </c>
+      <c r="M40" s="51">
+        <v>1.193485</v>
+      </c>
+      <c r="N40" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O40" s="51">
+        <v>1.918452</v>
+      </c>
+      <c r="P40" s="80">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="51">
+        <v>5.3</v>
+      </c>
+      <c r="R40" s="51">
+        <v>18.7</v>
+      </c>
+      <c r="S40" s="51">
+        <v>0.978581</v>
+      </c>
+      <c r="T40" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U40" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V40" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W40" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X40" s="60"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="60"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="53"/>
+      <c r="Q41" s="53"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="100"/>
+      <c r="V41" s="100"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="42">
+        <v>1500</v>
+      </c>
+      <c r="B42" s="43">
+        <v>30</v>
+      </c>
+      <c r="C42" s="44">
+        <v>35.936649</v>
+      </c>
+      <c r="D42" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E42" s="45">
+        <v>0.756779</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0.596742</v>
+      </c>
+      <c r="G42" s="45">
+        <v>0.243221</v>
+      </c>
+      <c r="H42" s="45">
+        <v>0.403258</v>
+      </c>
+      <c r="I42" s="45">
+        <v>1</v>
+      </c>
+      <c r="J42" s="45">
+        <v>0.243611</v>
+      </c>
+      <c r="K42" s="45">
+        <v>0.457897</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0.141233</v>
+      </c>
+      <c r="M42" s="45">
+        <v>0.457897</v>
+      </c>
+      <c r="N42" s="81">
+        <v>0.2833</v>
+      </c>
+      <c r="O42" s="45">
+        <v>0.984808</v>
+      </c>
+      <c r="P42" s="75">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="45">
+        <v>5.846667</v>
+      </c>
+      <c r="R42" s="45">
+        <v>18.153333</v>
+      </c>
+      <c r="S42" s="45">
+        <v>0.364613</v>
+      </c>
+      <c r="T42" s="45">
+        <v>109.25</v>
+      </c>
+      <c r="U42" s="97">
+        <v>109.25</v>
+      </c>
+      <c r="V42" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="W42" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X42" s="60"/>
+      <c r="Y42" s="60"/>
+      <c r="Z42" s="60"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="42"/>
+      <c r="B43" s="43">
+        <v>45</v>
+      </c>
+      <c r="C43" s="44">
+        <v>52.460934</v>
+      </c>
+      <c r="D43" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E43" s="45">
+        <v>0.833389</v>
+      </c>
+      <c r="F43" s="46">
+        <v>0.596742</v>
+      </c>
+      <c r="G43" s="46">
+        <v>0.166611</v>
+      </c>
+      <c r="H43" s="46">
+        <v>0.403258</v>
+      </c>
+      <c r="I43" s="46">
+        <v>1</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0.343611</v>
+      </c>
+      <c r="K43" s="46">
+        <v>0.671115</v>
+      </c>
+      <c r="L43" s="45">
+        <v>0.141233</v>
+      </c>
+      <c r="M43" s="46">
+        <v>0.671115</v>
+      </c>
+      <c r="N43" s="78">
+        <v>0.2833</v>
+      </c>
+      <c r="O43" s="46">
+        <v>1.298026</v>
+      </c>
+      <c r="P43" s="77">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="46">
+        <v>6.185</v>
+      </c>
+      <c r="R43" s="46">
+        <v>17.815</v>
+      </c>
+      <c r="S43" s="46">
+        <v>0.635533</v>
+      </c>
+      <c r="T43" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U43" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="V43" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W43" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="60"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43">
+        <v>60</v>
+      </c>
+      <c r="C44" s="44">
+        <v>68.98522</v>
+      </c>
+      <c r="D44" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E44" s="45">
+        <v>0.873298</v>
+      </c>
+      <c r="F44" s="46">
+        <v>0.596742</v>
+      </c>
+      <c r="G44" s="46">
+        <v>0.126702</v>
+      </c>
+      <c r="H44" s="46">
+        <v>0.403258</v>
+      </c>
+      <c r="I44" s="46">
+        <v>1</v>
+      </c>
+      <c r="J44" s="46">
+        <v>0.443611</v>
+      </c>
+      <c r="K44" s="46">
+        <v>0.875765</v>
+      </c>
+      <c r="L44" s="45">
+        <v>0.141233</v>
+      </c>
+      <c r="M44" s="46">
+        <v>0.875765</v>
+      </c>
+      <c r="N44" s="78">
+        <v>0.2833</v>
+      </c>
+      <c r="O44" s="46">
+        <v>1.602676</v>
+      </c>
+      <c r="P44" s="77">
+        <v>14</v>
+      </c>
+      <c r="Q44" s="46">
+        <v>6.210556</v>
+      </c>
+      <c r="R44" s="46">
+        <v>17.789444</v>
+      </c>
+      <c r="S44" s="46">
+        <v>1.562538</v>
+      </c>
+      <c r="T44" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U44" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="V44" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W44" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="47">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="48">
+        <v>30</v>
+      </c>
+      <c r="C45" s="49">
+        <v>32.223246</v>
+      </c>
+      <c r="D45" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E45" s="50">
+        <v>0.719669</v>
+      </c>
+      <c r="F45" s="51">
+        <v>0.895538</v>
+      </c>
+      <c r="G45" s="51">
+        <v>0.280331</v>
+      </c>
+      <c r="H45" s="51">
+        <v>0.104462</v>
+      </c>
+      <c r="I45" s="51">
+        <v>1</v>
+      </c>
+      <c r="J45" s="51">
+        <v>0.241667</v>
+      </c>
+      <c r="K45" s="51">
+        <v>0.405741</v>
+      </c>
+      <c r="L45" s="50">
+        <v>0.16995</v>
+      </c>
+      <c r="M45" s="51">
+        <v>0.405741</v>
+      </c>
+      <c r="N45" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O45" s="51">
+        <v>0.930708</v>
+      </c>
+      <c r="P45" s="80">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="51">
+        <v>6.041667</v>
+      </c>
+      <c r="R45" s="51">
+        <v>17.958333</v>
+      </c>
+      <c r="S45" s="51">
+        <v>0.732303</v>
+      </c>
+      <c r="T45" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U45" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V45" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X45" s="60"/>
+      <c r="Y45" s="60"/>
+      <c r="Z45" s="60"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="47"/>
+      <c r="B46" s="48">
+        <v>45</v>
+      </c>
+      <c r="C46" s="49">
+        <v>48.685847</v>
+      </c>
+      <c r="D46" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E46" s="50">
+        <v>0.81446</v>
+      </c>
+      <c r="F46" s="51">
+        <v>0.895538</v>
+      </c>
+      <c r="G46" s="51">
+        <v>0.18554</v>
+      </c>
+      <c r="H46" s="51">
+        <v>0.104462</v>
+      </c>
+      <c r="I46" s="51">
+        <v>1</v>
+      </c>
+      <c r="J46" s="51">
+        <v>0.341667</v>
+      </c>
+      <c r="K46" s="51">
+        <v>0.620592</v>
+      </c>
+      <c r="L46" s="50">
+        <v>0.16995</v>
+      </c>
+      <c r="M46" s="51">
+        <v>0.620592</v>
+      </c>
+      <c r="N46" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O46" s="51">
+        <v>1.245559</v>
+      </c>
+      <c r="P46" s="80">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="51">
+        <v>6.491667</v>
+      </c>
+      <c r="R46" s="51">
+        <v>17.508333</v>
+      </c>
+      <c r="S46" s="51">
+        <v>0.334388</v>
+      </c>
+      <c r="T46" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U46" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V46" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W46" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X46" s="60"/>
+      <c r="Y46" s="60"/>
+      <c r="Z46" s="60"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="47"/>
+      <c r="B47" s="48">
+        <v>60</v>
+      </c>
+      <c r="C47" s="49">
+        <v>65.148448</v>
+      </c>
+      <c r="D47" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E47" s="50">
+        <v>0.861345</v>
+      </c>
+      <c r="F47" s="51">
+        <v>0.895538</v>
+      </c>
+      <c r="G47" s="51">
+        <v>0.138655</v>
+      </c>
+      <c r="H47" s="51">
+        <v>0.104462</v>
+      </c>
+      <c r="I47" s="51">
+        <v>1</v>
+      </c>
+      <c r="J47" s="51">
+        <v>0.441667</v>
+      </c>
+      <c r="K47" s="51">
+        <v>0.826193</v>
+      </c>
+      <c r="L47" s="50">
+        <v>0.16995</v>
+      </c>
+      <c r="M47" s="51">
+        <v>0.826193</v>
+      </c>
+      <c r="N47" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O47" s="51">
+        <v>1.55116</v>
+      </c>
+      <c r="P47" s="80">
+        <v>15</v>
+      </c>
+      <c r="Q47" s="51">
+        <v>6.625</v>
+      </c>
+      <c r="R47" s="51">
+        <v>17.375</v>
+      </c>
+      <c r="S47" s="51">
+        <v>0.7326</v>
+      </c>
+      <c r="T47" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U47" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V47" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W47" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X47" s="60"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="60"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="60"/>
+      <c r="Y48" s="60"/>
+      <c r="Z48" s="60"/>
+    </row>
+    <row r="49" spans="1:26">
+      <c r="A49" s="54">
+        <v>1500</v>
+      </c>
+      <c r="B49" s="54">
+        <v>30</v>
+      </c>
+      <c r="C49" s="55">
+        <v>55.256298</v>
+      </c>
+      <c r="D49" s="56">
+        <v>10.5</v>
+      </c>
+      <c r="E49" s="56">
+        <v>0.770036</v>
+      </c>
+      <c r="F49" s="56">
+        <v>0.713309</v>
+      </c>
+      <c r="G49" s="56">
+        <v>0.229964</v>
+      </c>
+      <c r="H49" s="56">
+        <v>0.286691</v>
+      </c>
+      <c r="I49" s="56">
+        <v>1</v>
+      </c>
+      <c r="J49" s="56">
+        <v>0.243611</v>
+      </c>
+      <c r="K49" s="56">
+        <v>0.669952</v>
+      </c>
+      <c r="L49" s="56">
+        <v>0.152436</v>
+      </c>
+      <c r="M49" s="56">
+        <v>0.669952</v>
+      </c>
+      <c r="N49" s="82">
+        <v>0.2833</v>
+      </c>
+      <c r="O49" s="56">
+        <v>1.196863</v>
+      </c>
+      <c r="P49" s="83">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="56">
+        <v>4.872222</v>
+      </c>
+      <c r="R49" s="56">
+        <v>19.127778</v>
+      </c>
+      <c r="S49" s="56">
+        <v>0.062737</v>
+      </c>
+      <c r="T49" s="56">
+        <v>109.25</v>
+      </c>
+      <c r="U49" s="102">
+        <v>109.25</v>
+      </c>
+      <c r="V49" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="W49" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="60"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43">
+        <v>45</v>
+      </c>
+      <c r="C50" s="44">
+        <v>81.43743</v>
+      </c>
+      <c r="D50" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E50" s="45">
+        <v>0.843967</v>
+      </c>
+      <c r="F50" s="45">
+        <v>0.713309</v>
+      </c>
+      <c r="G50" s="45">
+        <v>0.156033</v>
+      </c>
+      <c r="H50" s="45">
+        <v>0.286691</v>
+      </c>
+      <c r="I50" s="45">
+        <v>1</v>
+      </c>
+      <c r="J50" s="45">
+        <v>0.343611</v>
+      </c>
+      <c r="K50" s="45">
+        <v>0.989432</v>
+      </c>
+      <c r="L50" s="45">
+        <v>0.152436</v>
+      </c>
+      <c r="M50" s="45">
+        <v>0.989432</v>
+      </c>
+      <c r="N50" s="74">
+        <v>0.2833</v>
+      </c>
+      <c r="O50" s="45">
+        <v>1.616344</v>
+      </c>
+      <c r="P50" s="75">
+        <v>14</v>
+      </c>
+      <c r="Q50" s="45">
+        <v>4.810556</v>
+      </c>
+      <c r="R50" s="45">
+        <v>19.189444</v>
+      </c>
+      <c r="S50" s="45">
+        <v>1.371191</v>
+      </c>
+      <c r="T50" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U50" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="V50" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W50" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43">
+        <v>60</v>
+      </c>
+      <c r="C51" s="44">
+        <v>107.618562</v>
+      </c>
+      <c r="D51" s="45">
+        <v>10.5</v>
+      </c>
+      <c r="E51" s="45">
+        <v>0.881926</v>
+      </c>
+      <c r="F51" s="46">
+        <v>0.713309</v>
+      </c>
+      <c r="G51" s="46">
+        <v>0.118074</v>
+      </c>
+      <c r="H51" s="46">
+        <v>0.286691</v>
+      </c>
+      <c r="I51" s="46">
+        <v>1</v>
+      </c>
+      <c r="J51" s="46">
+        <v>0.443611</v>
+      </c>
+      <c r="K51" s="46">
+        <v>1.295635</v>
+      </c>
+      <c r="L51" s="45">
+        <v>0.152436</v>
+      </c>
+      <c r="M51" s="46">
+        <v>1.295635</v>
+      </c>
+      <c r="N51" s="78">
+        <v>0.2833</v>
+      </c>
+      <c r="O51" s="46">
+        <v>2.022546</v>
+      </c>
+      <c r="P51" s="77">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="46">
+        <v>4.879722</v>
+      </c>
+      <c r="R51" s="46">
+        <v>19.120278</v>
+      </c>
+      <c r="S51" s="46">
+        <v>1.751992</v>
+      </c>
+      <c r="T51" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="U51" s="46">
+        <v>109.25</v>
+      </c>
+      <c r="V51" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="W51" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="60"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="48">
+        <v>3000</v>
+      </c>
+      <c r="B52" s="48">
+        <v>30</v>
+      </c>
+      <c r="C52" s="49">
+        <v>47.41672</v>
+      </c>
+      <c r="D52" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E52" s="50">
+        <v>0.749774</v>
+      </c>
+      <c r="F52" s="51">
+        <v>1</v>
+      </c>
+      <c r="G52" s="51">
+        <v>0.250226</v>
+      </c>
+      <c r="H52" s="51">
+        <v>0</v>
+      </c>
+      <c r="I52" s="51">
+        <v>1</v>
+      </c>
+      <c r="J52" s="51">
+        <v>0.241667</v>
+      </c>
+      <c r="K52" s="51">
+        <v>0.578483</v>
+      </c>
+      <c r="L52" s="50">
+        <v>0.17999</v>
+      </c>
+      <c r="M52" s="51">
+        <v>0.578483</v>
+      </c>
+      <c r="N52" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O52" s="51">
+        <v>1.103449</v>
+      </c>
+      <c r="P52" s="80">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="51">
+        <v>5.075</v>
+      </c>
+      <c r="R52" s="51">
+        <v>18.925</v>
+      </c>
+      <c r="S52" s="51">
+        <v>0.827564</v>
+      </c>
+      <c r="T52" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U52" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V52" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W52" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="60"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48">
+        <v>45</v>
+      </c>
+      <c r="C53" s="49">
+        <v>73.335556</v>
+      </c>
+      <c r="D53" s="50">
+        <v>10.5</v>
+      </c>
+      <c r="E53" s="50">
+        <v>0.838211</v>
+      </c>
+      <c r="F53" s="51">
+        <v>1</v>
+      </c>
+      <c r="G53" s="51">
+        <v>0.161789</v>
+      </c>
+      <c r="H53" s="51">
+        <v>0</v>
+      </c>
+      <c r="I53" s="51">
+        <v>1</v>
+      </c>
+      <c r="J53" s="51">
+        <v>0.341667</v>
+      </c>
+      <c r="K53" s="51">
+        <v>0.899931</v>
+      </c>
+      <c r="L53" s="50">
+        <v>0.17999</v>
+      </c>
+      <c r="M53" s="51">
+        <v>0.899931</v>
+      </c>
+      <c r="N53" s="79">
+        <v>0.2833</v>
+      </c>
+      <c r="O53" s="51">
+        <v>1.524898</v>
+      </c>
+      <c r="P53" s="80">
+        <v>15</v>
+      </c>
+      <c r="Q53" s="51">
+        <v>5.125</v>
+      </c>
+      <c r="R53" s="51">
+        <v>18.875</v>
+      </c>
+      <c r="S53" s="51">
+        <v>1.126532</v>
+      </c>
+      <c r="T53" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="U53" s="51">
+        <v>109.25</v>
+      </c>
+      <c r="V53" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W53" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="60"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57">
+        <v>60</v>
+      </c>
+      <c r="C54" s="58">
+        <v>99.254391</v>
+      </c>
+      <c r="D54" s="59">
+        <v>10.5</v>
+      </c>
+      <c r="E54" s="59">
+        <v>0.88046</v>
+      </c>
+      <c r="F54" s="59">
+        <v>1</v>
+      </c>
+      <c r="G54" s="59">
+        <v>0.11954</v>
+      </c>
+      <c r="H54" s="59">
+        <v>0</v>
+      </c>
+      <c r="I54" s="59">
+        <v>1</v>
+      </c>
+      <c r="J54" s="59">
+        <v>0.441667</v>
+      </c>
+      <c r="K54" s="59">
+        <v>1.206699</v>
+      </c>
+      <c r="L54" s="59">
+        <v>0.17999</v>
+      </c>
+      <c r="M54" s="59">
+        <v>1.206699</v>
+      </c>
+      <c r="N54" s="84">
+        <v>0.2833</v>
+      </c>
+      <c r="O54" s="59">
+        <v>1.931665</v>
+      </c>
+      <c r="P54" s="85">
+        <v>12</v>
+      </c>
+      <c r="Q54" s="59">
+        <v>5.3</v>
+      </c>
+      <c r="R54" s="59">
+        <v>18.7</v>
+      </c>
+      <c r="S54" s="59">
+        <v>0.820016</v>
+      </c>
+      <c r="T54" s="104">
+        <v>109.25</v>
+      </c>
+      <c r="U54" s="104">
+        <v>109.25</v>
+      </c>
+      <c r="V54" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="W54" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="60"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="86"/>
+      <c r="O55" s="86"/>
+      <c r="P55" s="86"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="86"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
+      <c r="W55" s="86"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="86"/>
+      <c r="O56" s="86"/>
+      <c r="P56" s="86"/>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="86"/>
+      <c r="S56" s="86"/>
+      <c r="T56" s="86"/>
+      <c r="U56" s="86"/>
+      <c r="V56" s="86"/>
+      <c r="W56" s="86"/>
+      <c r="X56" s="60"/>
+      <c r="Y56" s="60"/>
+      <c r="Z56" s="60"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="86"/>
+      <c r="O57" s="86"/>
+      <c r="P57" s="86"/>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="86"/>
+      <c r="S57" s="86"/>
+      <c r="T57" s="86"/>
+      <c r="U57" s="86"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="86"/>
+      <c r="X57" s="60"/>
+      <c r="Y57" s="60"/>
+      <c r="Z57" s="60"/>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A33:W33"/>
+    <mergeCell ref="A41:W41"/>
+    <mergeCell ref="A48:W48"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B21:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>